--- a/graphs/results.xlsx
+++ b/graphs/results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,461 @@
       </c>
       <c r="K8" t="n">
         <v>2.266666666666667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" t="n">
+        <v>820000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>681972</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2946</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2164</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3875</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36</v>
+      </c>
+      <c r="E11" t="n">
+        <v>340</v>
+      </c>
+      <c r="F11" t="n">
+        <v>228</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4380952380952381</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.076923076923077</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.769230769230769</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>70</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3923</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2814</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.3035714285714285</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.428571428571428</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>98</v>
+      </c>
+      <c r="E13" t="n">
+        <v>101131</v>
+      </c>
+      <c r="F13" t="n">
+        <v>78741</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2103174603174603</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.523809523809524</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.619047619047619</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>56</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1538</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1085</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.095238095238095</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>126</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1597600</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1329226</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1629464285714286</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.607142857142857</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.535714285714286</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>70</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3194</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2254</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.142857142857143</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>435</v>
+      </c>
+      <c r="F17" t="n">
+        <v>309</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5257731958762887</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.555555555555555</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>48</v>
+      </c>
+      <c r="E18" t="n">
+        <v>849</v>
+      </c>
+      <c r="F18" t="n">
+        <v>541</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.470588235294118</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.823529411764706</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2224</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1718</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>112</v>
+      </c>
+      <c r="E20" t="n">
+        <v>139587</v>
+      </c>
+      <c r="F20" t="n">
+        <v>108916</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.458333333333333</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.583333333333333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" t="n">
+        <v>809</v>
+      </c>
+      <c r="F21" t="n">
+        <v>606</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.416666666666667</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.041666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +1281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1169,6 +1624,461 @@
       </c>
       <c r="K9" t="n">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9296</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6497</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3875</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36</v>
+      </c>
+      <c r="E11" t="n">
+        <v>146</v>
+      </c>
+      <c r="F11" t="n">
+        <v>108</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4380952380952381</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.076923076923077</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.769230769230769</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>70</v>
+      </c>
+      <c r="E12" t="n">
+        <v>815</v>
+      </c>
+      <c r="F12" t="n">
+        <v>629</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.3035714285714285</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.428571428571428</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>98</v>
+      </c>
+      <c r="E13" t="n">
+        <v>614</v>
+      </c>
+      <c r="F13" t="n">
+        <v>416</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2103174603174603</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.523809523809524</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.619047619047619</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>56</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1160</v>
+      </c>
+      <c r="F14" t="n">
+        <v>758</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.095238095238095</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>126</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1597600</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1329475</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1629464285714286</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.607142857142857</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.535714285714286</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>70</v>
+      </c>
+      <c r="E16" t="n">
+        <v>813</v>
+      </c>
+      <c r="F16" t="n">
+        <v>566</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.142857142857143</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>435</v>
+      </c>
+      <c r="F17" t="n">
+        <v>286</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5257731958762887</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.555555555555555</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>48</v>
+      </c>
+      <c r="E18" t="n">
+        <v>317</v>
+      </c>
+      <c r="F18" t="n">
+        <v>255</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.470588235294118</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.823529411764706</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1169</v>
+      </c>
+      <c r="F19" t="n">
+        <v>862</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>112</v>
+      </c>
+      <c r="E20" t="n">
+        <v>129252</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100688</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.458333333333333</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.583333333333333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" t="n">
+        <v>564</v>
+      </c>
+      <c r="F21" t="n">
+        <v>392</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.416666666666667</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.041666666666667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>144</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1220</v>
+      </c>
+      <c r="F22" t="n">
+        <v>914</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.16015625</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +2092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,6 +2435,461 @@
       </c>
       <c r="K9" t="n">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>606</v>
+      </c>
+      <c r="F10" t="n">
+        <v>462</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3875</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36</v>
+      </c>
+      <c r="E11" t="n">
+        <v>130</v>
+      </c>
+      <c r="F11" t="n">
+        <v>97</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4380952380952381</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.076923076923077</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.769230769230769</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>70</v>
+      </c>
+      <c r="E12" t="n">
+        <v>284</v>
+      </c>
+      <c r="F12" t="n">
+        <v>219</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.3035714285714285</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.428571428571428</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>98</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1153</v>
+      </c>
+      <c r="F13" t="n">
+        <v>885</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.06122448979591837</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2103174603174603</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.523809523809524</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.619047619047619</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>56</v>
+      </c>
+      <c r="E14" t="n">
+        <v>355</v>
+      </c>
+      <c r="F14" t="n">
+        <v>285</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.095238095238095</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>126</v>
+      </c>
+      <c r="E15" t="n">
+        <v>889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>660</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1629464285714286</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.607142857142857</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.535714285714286</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>70</v>
+      </c>
+      <c r="E16" t="n">
+        <v>607</v>
+      </c>
+      <c r="F16" t="n">
+        <v>410</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.142857142857143</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>667</v>
+      </c>
+      <c r="F17" t="n">
+        <v>455</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5257731958762887</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.555555555555555</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>48</v>
+      </c>
+      <c r="E18" t="n">
+        <v>465</v>
+      </c>
+      <c r="F18" t="n">
+        <v>299</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.470588235294118</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.823529411764706</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1229</v>
+      </c>
+      <c r="F19" t="n">
+        <v>821</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>112</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1317</v>
+      </c>
+      <c r="F20" t="n">
+        <v>968</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.458333333333333</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.583333333333333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1376</v>
+      </c>
+      <c r="F21" t="n">
+        <v>965</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.416666666666667</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.041666666666667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>144</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1534</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1158</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.16015625</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -1538,7 +2903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1874,6 +3239,500 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1184</v>
+      </c>
+      <c r="F9" t="n">
+        <v>924</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>940</v>
+      </c>
+      <c r="F10" t="n">
+        <v>710</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3875</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1135</v>
+      </c>
+      <c r="F11" t="n">
+        <v>721</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4380952380952381</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.076923076923077</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.769230769230769</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>70</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1607</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1148</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.3035714285714285</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.428571428571428</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.928571428571429</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>98</v>
+      </c>
+      <c r="E13" t="n">
+        <v>52821</v>
+      </c>
+      <c r="F13" t="n">
+        <v>41031</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2103174603174603</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.523809523809524</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.619047619047619</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>56</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3186</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2087</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.095238095238095</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>126</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1514</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1258</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1629464285714286</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.607142857142857</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.535714285714286</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>70</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5687</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4049</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.142857142857143</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.928571428571429</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>967</v>
+      </c>
+      <c r="F17" t="n">
+        <v>697</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5257731958762887</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.555555555555555</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>48</v>
+      </c>
+      <c r="E18" t="n">
+        <v>399</v>
+      </c>
+      <c r="F18" t="n">
+        <v>306</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.470588235294118</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.823529411764706</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
+        <v>789</v>
+      </c>
+      <c r="F19" t="n">
+        <v>644</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.8125</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>112</v>
+      </c>
+      <c r="E20" t="n">
+        <v>51061</v>
+      </c>
+      <c r="F20" t="n">
+        <v>39769</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.458333333333333</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.583333333333333</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1263</v>
+      </c>
+      <c r="F21" t="n">
+        <v>863</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.416666666666667</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.041666666666667</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/graphs/results.xlsx
+++ b/graphs/results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1194,6 +1194,601 @@
         <v>2.041666666666667</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>144</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2083600</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1733904</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.16015625</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>16</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>80</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4953</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3537</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3046875</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>58</v>
+      </c>
+      <c r="E24" t="n">
+        <v>845</v>
+      </c>
+      <c r="F24" t="n">
+        <v>582</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4319526627218935</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.952380952380953</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.476190476190476</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>90</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2890</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2198</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>126</v>
+      </c>
+      <c r="E26" t="n">
+        <v>206385</v>
+      </c>
+      <c r="F26" t="n">
+        <v>161068</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>72</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2204</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1533</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.3950617283950617</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.74074074074074</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.111111111111111</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>162</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2634400</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2192324</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1614583333333333</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.527777777777778</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>18</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>90</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4486</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3220</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>18</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>66</v>
+      </c>
+      <c r="E30" t="n">
+        <v>524</v>
+      </c>
+      <c r="F30" t="n">
+        <v>388</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.4427083333333333</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>18</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>62</v>
+      </c>
+      <c r="E31" t="n">
+        <v>597</v>
+      </c>
+      <c r="F31" t="n">
+        <v>445</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.5520361990950227</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11.09090909090909</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.681818181818182</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2307</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1685</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.30625</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>140</v>
+      </c>
+      <c r="E33" t="n">
+        <v>329111</v>
+      </c>
+      <c r="F33" t="n">
+        <v>257315</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2138888888888889</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.566666666666667</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.633333333333333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>80</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2834</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1952</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.533333333333333</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.966666666666667</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>180</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3250000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2702193</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1609375</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2652</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1959</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>72</v>
+      </c>
+      <c r="E37" t="n">
+        <v>781</v>
+      </c>
+      <c r="F37" t="n">
+        <v>593</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.4701670644391408</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7.576923076923077</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.307692307692307</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>70</v>
+      </c>
+      <c r="E38" t="n">
+        <v>682</v>
+      </c>
+      <c r="F38" t="n">
+        <v>523</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="J38" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1205,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,6 +1865,321 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>168</v>
+      </c>
+      <c r="F2" t="n">
+        <v>108</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54</v>
+      </c>
+      <c r="E3" t="n">
+        <v>48727</v>
+      </c>
+      <c r="F3" t="n">
+        <v>40445</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.265625</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>66</v>
+      </c>
+      <c r="E4" t="n">
+        <v>445600</v>
+      </c>
+      <c r="F4" t="n">
+        <v>384794</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.866666666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>78</v>
+      </c>
+      <c r="E5" t="n">
+        <v>618400</v>
+      </c>
+      <c r="F5" t="n">
+        <v>547165</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1782407407407407</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.277777777777778</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90</v>
+      </c>
+      <c r="E6" t="n">
+        <v>820000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>738015</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.80952380952381</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>102</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1050400</v>
+      </c>
+      <c r="F7" t="n">
+        <v>957295</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.11328125</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.791666666666667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1309600</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1206596</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03508771929824561</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1080246913580247</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.888888888888889</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.777777777777778</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>126</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1597600</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1483582</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>138</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1914400</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1790025</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.09986225895316804</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.393939393939394</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.924242424242424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1281,7 +2191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2081,6 +2991,916 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>16</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>80</v>
+      </c>
+      <c r="E23" t="n">
+        <v>886</v>
+      </c>
+      <c r="F23" t="n">
+        <v>608</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3046875</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>58</v>
+      </c>
+      <c r="E24" t="n">
+        <v>727</v>
+      </c>
+      <c r="F24" t="n">
+        <v>507</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4319526627218935</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.952380952380953</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.476190476190476</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>90</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1268</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>126</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1217</v>
+      </c>
+      <c r="F26" t="n">
+        <v>950</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>72</v>
+      </c>
+      <c r="E27" t="n">
+        <v>349</v>
+      </c>
+      <c r="F27" t="n">
+        <v>250</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.3950617283950617</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.74074074074074</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.111111111111111</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>162</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1414</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1614583333333333</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.527777777777778</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>18</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>90</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1195</v>
+      </c>
+      <c r="F29" t="n">
+        <v>836</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>18</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>66</v>
+      </c>
+      <c r="E30" t="n">
+        <v>464</v>
+      </c>
+      <c r="F30" t="n">
+        <v>337</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.4427083333333333</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>18</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>62</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1133</v>
+      </c>
+      <c r="F31" t="n">
+        <v>822</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.5520361990950227</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11.09090909090909</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.681818181818182</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1476</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1052</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.30625</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>140</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1608</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1143</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2138888888888889</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.566666666666667</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.633333333333333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>80</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1043</v>
+      </c>
+      <c r="F34" t="n">
+        <v>767</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.533333333333333</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.966666666666667</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>180</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3344</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2325</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1609375</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1364</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>72</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1343</v>
+      </c>
+      <c r="F37" t="n">
+        <v>997</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.4701670644391408</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7.576923076923077</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.307692307692307</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>70</v>
+      </c>
+      <c r="E38" t="n">
+        <v>569</v>
+      </c>
+      <c r="F38" t="n">
+        <v>386</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="J38" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>24</v>
+      </c>
+      <c r="E39" t="n">
+        <v>380</v>
+      </c>
+      <c r="F39" t="n">
+        <v>252</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>54</v>
+      </c>
+      <c r="E40" t="n">
+        <v>649</v>
+      </c>
+      <c r="F40" t="n">
+        <v>493</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.265625</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>66</v>
+      </c>
+      <c r="E41" t="n">
+        <v>445600</v>
+      </c>
+      <c r="F41" t="n">
+        <v>384819</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.866666666666667</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>78</v>
+      </c>
+      <c r="E42" t="n">
+        <v>618400</v>
+      </c>
+      <c r="F42" t="n">
+        <v>546871</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1782407407407407</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.277777777777778</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>90</v>
+      </c>
+      <c r="E43" t="n">
+        <v>820000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>737717</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.80952380952381</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>102</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1050400</v>
+      </c>
+      <c r="F44" t="n">
+        <v>957100</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.11328125</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.791666666666667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>114</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1309600</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1205888</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.01754385964912281</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.1080246913580247</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.888888888888889</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.777777777777778</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>126</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1648</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1162</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" t="n">
+        <v>22</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>138</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1914400</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1789307</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.09986225895316804</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.393939393939394</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.924242424242424</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6</v>
+      </c>
+      <c r="B48" t="n">
+        <v>24</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>150</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1605</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1092</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0920138888888889</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.416666666666667</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.916666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2092,7 +3912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2892,6 +4712,916 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>16</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>80</v>
+      </c>
+      <c r="E23" t="n">
+        <v>765</v>
+      </c>
+      <c r="F23" t="n">
+        <v>530</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3046875</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>58</v>
+      </c>
+      <c r="E24" t="n">
+        <v>891</v>
+      </c>
+      <c r="F24" t="n">
+        <v>678</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4319526627218935</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.952380952380953</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.476190476190476</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>90</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1335</v>
+      </c>
+      <c r="F25" t="n">
+        <v>891</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>126</v>
+      </c>
+      <c r="E26" t="n">
+        <v>514991</v>
+      </c>
+      <c r="F26" t="n">
+        <v>402144</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>72</v>
+      </c>
+      <c r="E27" t="n">
+        <v>466</v>
+      </c>
+      <c r="F27" t="n">
+        <v>365</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.3950617283950617</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.74074074074074</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.111111111111111</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>162</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2516</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1811</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.08641975308641975</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1614583333333333</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.527777777777778</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>18</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>90</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5732</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3941</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>18</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>66</v>
+      </c>
+      <c r="E30" t="n">
+        <v>511</v>
+      </c>
+      <c r="F30" t="n">
+        <v>341</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.4427083333333333</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>18</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>62</v>
+      </c>
+      <c r="E31" t="n">
+        <v>446</v>
+      </c>
+      <c r="F31" t="n">
+        <v>274</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.5520361990950227</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11.09090909090909</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.681818181818182</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" t="n">
+        <v>841</v>
+      </c>
+      <c r="F32" t="n">
+        <v>645</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.30625</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>140</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1333</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1058</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2138888888888889</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.566666666666667</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.633333333333333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>80</v>
+      </c>
+      <c r="E34" t="n">
+        <v>674</v>
+      </c>
+      <c r="F34" t="n">
+        <v>520</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.533333333333333</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.966666666666667</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>180</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2452</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1792</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1609375</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1687</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1178</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>72</v>
+      </c>
+      <c r="E37" t="n">
+        <v>553</v>
+      </c>
+      <c r="F37" t="n">
+        <v>389</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.4701670644391408</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7.576923076923077</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.307692307692307</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>70</v>
+      </c>
+      <c r="E38" t="n">
+        <v>528</v>
+      </c>
+      <c r="F38" t="n">
+        <v>411</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="J38" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>24</v>
+      </c>
+      <c r="E39" t="n">
+        <v>134</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>54</v>
+      </c>
+      <c r="E40" t="n">
+        <v>586</v>
+      </c>
+      <c r="F40" t="n">
+        <v>472</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.265625</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>66</v>
+      </c>
+      <c r="E41" t="n">
+        <v>537</v>
+      </c>
+      <c r="F41" t="n">
+        <v>409</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.866666666666667</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>78</v>
+      </c>
+      <c r="E42" t="n">
+        <v>601</v>
+      </c>
+      <c r="F42" t="n">
+        <v>426</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1782407407407407</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.277777777777778</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>90</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1594</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1035</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.80952380952381</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>102</v>
+      </c>
+      <c r="E44" t="n">
+        <v>749</v>
+      </c>
+      <c r="F44" t="n">
+        <v>567</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.11328125</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.791666666666667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>114</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1246</v>
+      </c>
+      <c r="F45" t="n">
+        <v>851</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03508771929824561</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.1080246913580247</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.888888888888889</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.777777777777778</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>126</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1597600</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1482485</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" t="n">
+        <v>22</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>138</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1914400</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1788870</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.02898550724637681</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.09986225895316804</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.393939393939394</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.924242424242424</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6</v>
+      </c>
+      <c r="B48" t="n">
+        <v>24</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>150</v>
+      </c>
+      <c r="E48" t="n">
+        <v>951</v>
+      </c>
+      <c r="F48" t="n">
+        <v>674</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.05333333333333334</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0920138888888889</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.416666666666667</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.916666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2903,7 +5633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3733,6 +6463,994 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>144</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2424</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1899</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.16015625</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>16</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>80</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7555</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5428</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3046875</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>58</v>
+      </c>
+      <c r="E24" t="n">
+        <v>900</v>
+      </c>
+      <c r="F24" t="n">
+        <v>619</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4319526627218935</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.952380952380953</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.476190476190476</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>90</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3340</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2445</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>126</v>
+      </c>
+      <c r="E26" t="n">
+        <v>289799</v>
+      </c>
+      <c r="F26" t="n">
+        <v>226422</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>72</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1421</v>
+      </c>
+      <c r="F27" t="n">
+        <v>942</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.3950617283950617</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.74074074074074</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.111111111111111</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>162</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2127</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1647</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1614583333333333</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.527777777777778</v>
+      </c>
+      <c r="L28" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>18</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>90</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4426</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3266</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>18</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>66</v>
+      </c>
+      <c r="E30" t="n">
+        <v>633</v>
+      </c>
+      <c r="F30" t="n">
+        <v>477</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.4427083333333333</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>18</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>62</v>
+      </c>
+      <c r="E31" t="n">
+        <v>980</v>
+      </c>
+      <c r="F31" t="n">
+        <v>729</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.5520361990950227</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11.09090909090909</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.681818181818182</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5160</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3901</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.30625</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>140</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1794939</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1401774</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2138888888888889</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.566666666666667</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.633333333333333</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>80</v>
+      </c>
+      <c r="E34" t="n">
+        <v>909</v>
+      </c>
+      <c r="F34" t="n">
+        <v>716</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.533333333333333</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.966666666666667</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>180</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2528</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2058</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1609375</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4655</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3287</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>72</v>
+      </c>
+      <c r="E37" t="n">
+        <v>731</v>
+      </c>
+      <c r="F37" t="n">
+        <v>560</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.4701670644391408</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7.576923076923077</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.307692307692307</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>70</v>
+      </c>
+      <c r="E38" t="n">
+        <v>699</v>
+      </c>
+      <c r="F38" t="n">
+        <v>511</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="J38" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>24</v>
+      </c>
+      <c r="E39" t="n">
+        <v>388</v>
+      </c>
+      <c r="F39" t="n">
+        <v>263</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>54</v>
+      </c>
+      <c r="E40" t="n">
+        <v>238597</v>
+      </c>
+      <c r="F40" t="n">
+        <v>198523</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.265625</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>66</v>
+      </c>
+      <c r="E41" t="n">
+        <v>615</v>
+      </c>
+      <c r="F41" t="n">
+        <v>506</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.866666666666667</v>
+      </c>
+      <c r="L41" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>78</v>
+      </c>
+      <c r="E42" t="n">
+        <v>387</v>
+      </c>
+      <c r="F42" t="n">
+        <v>322</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1782407407407407</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.277777777777778</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="L42" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>90</v>
+      </c>
+      <c r="E43" t="n">
+        <v>811</v>
+      </c>
+      <c r="F43" t="n">
+        <v>689</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.80952380952381</v>
+      </c>
+      <c r="L43" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>102</v>
+      </c>
+      <c r="E44" t="n">
+        <v>629</v>
+      </c>
+      <c r="F44" t="n">
+        <v>532</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.11328125</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.791666666666667</v>
+      </c>
+      <c r="L44" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>114</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1027</v>
+      </c>
+      <c r="F45" t="n">
+        <v>844</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.4385964912280702</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.1080246913580247</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.888888888888889</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="L45" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>126</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1126</v>
+      </c>
+      <c r="F46" t="n">
+        <v>895</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" t="n">
+        <v>22</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>138</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1399</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1147</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.09986225895316804</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.393939393939394</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.924242424242424</v>
+      </c>
+      <c r="L47" t="n">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
